--- a/persons.xlsx
+++ b/persons.xlsx
@@ -12,9 +12,165 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Chercher Tech</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+  <si>
+    <t>Имя</t>
+  </si>
+  <si>
+    <t>Фамилия</t>
+  </si>
+  <si>
+    <t>Отчество</t>
+  </si>
+  <si>
+    <t>Возраст</t>
+  </si>
+  <si>
+    <t>Пол</t>
+  </si>
+  <si>
+    <t>Дата рождения</t>
+  </si>
+  <si>
+    <t>Место рождения</t>
+  </si>
+  <si>
+    <t>Индекс</t>
+  </si>
+  <si>
+    <t>Страна</t>
+  </si>
+  <si>
+    <t>Область</t>
+  </si>
+  <si>
+    <t>Город</t>
+  </si>
+  <si>
+    <t>Улица</t>
+  </si>
+  <si>
+    <t>Дом</t>
+  </si>
+  <si>
+    <t>Квартира</t>
+  </si>
+  <si>
+    <t>Ульяна</t>
+  </si>
+  <si>
+    <t>Павлова</t>
+  </si>
+  <si>
+    <t>Тарасовна</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>ЖЕН</t>
+  </si>
+  <si>
+    <t>06-11-1960</t>
+  </si>
+  <si>
+    <t>Губкин</t>
+  </si>
+  <si>
+    <t>114414</t>
+  </si>
+  <si>
+    <t>Украина</t>
+  </si>
+  <si>
+    <t>Рязанская</t>
+  </si>
+  <si>
+    <t>Усть-Кут</t>
+  </si>
+  <si>
+    <t>У.Г.Нохсорова</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>Эвелина</t>
+  </si>
+  <si>
+    <t>Миронова</t>
+  </si>
+  <si>
+    <t>Борисовна</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>14-04-1985</t>
+  </si>
+  <si>
+    <t>Шахтерск</t>
+  </si>
+  <si>
+    <t>245721</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Вологодская</t>
+  </si>
+  <si>
+    <t>Пошехонье</t>
+  </si>
+  <si>
+    <t>Абзаковская</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>Таисия</t>
+  </si>
+  <si>
+    <t>Сергеевна</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>05-08-1927</t>
+  </si>
+  <si>
+    <t>Бирск</t>
+  </si>
+  <si>
+    <t>126041</t>
+  </si>
+  <si>
+    <t>Белоруссия</t>
+  </si>
+  <si>
+    <t>Тамбовская</t>
+  </si>
+  <si>
+    <t>Бирюч</t>
+  </si>
+  <si>
+    <t>Забелиха</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
 </sst>
 </file>
@@ -59,7 +215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -69,6 +225,177 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>47</v>
+      </c>
+      <c r="J4" t="s">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" t="s">
+        <v>51</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/persons.xlsx
+++ b/persons.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="122">
   <si>
     <t>Имя</t>
   </si>
@@ -56,121 +56,328 @@
     <t>Квартира</t>
   </si>
   <si>
-    <t>Ульяна</t>
-  </si>
-  <si>
-    <t>Павлова</t>
-  </si>
-  <si>
-    <t>Тарасовна</t>
-  </si>
-  <si>
-    <t>59</t>
+    <t>Павел</t>
+  </si>
+  <si>
+    <t>Лампов</t>
+  </si>
+  <si>
+    <t>Борисович</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>МУЖ</t>
+  </si>
+  <si>
+    <t>02-05-1903</t>
+  </si>
+  <si>
+    <t>Чермоз</t>
+  </si>
+  <si>
+    <t>172251</t>
+  </si>
+  <si>
+    <t>Белоруссия</t>
+  </si>
+  <si>
+    <t>Тверская</t>
+  </si>
+  <si>
+    <t>Весостроителей</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>Камилла</t>
+  </si>
+  <si>
+    <t>Козакова</t>
+  </si>
+  <si>
+    <t>Дмитриевна</t>
+  </si>
+  <si>
+    <t>42</t>
   </si>
   <si>
     <t>ЖЕН</t>
   </si>
   <si>
-    <t>06-11-1960</t>
-  </si>
-  <si>
-    <t>Губкин</t>
-  </si>
-  <si>
-    <t>114414</t>
+    <t>29-07-1977</t>
+  </si>
+  <si>
+    <t>Шахтерск</t>
+  </si>
+  <si>
+    <t>249876</t>
+  </si>
+  <si>
+    <t>Россия</t>
+  </si>
+  <si>
+    <t>Рязанская</t>
+  </si>
+  <si>
+    <t>Усть-Кут</t>
+  </si>
+  <si>
+    <t>Прорабская</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>Богдан</t>
+  </si>
+  <si>
+    <t>Ясенев</t>
+  </si>
+  <si>
+    <t>Давидович</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>10-07-1940</t>
+  </si>
+  <si>
+    <t>Улан-Удэ</t>
+  </si>
+  <si>
+    <t>244111</t>
   </si>
   <si>
     <t>Украина</t>
   </si>
   <si>
-    <t>Рязанская</t>
-  </si>
-  <si>
-    <t>Усть-Кут</t>
-  </si>
-  <si>
-    <t>У.Г.Нохсорова</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>Эвелина</t>
-  </si>
-  <si>
-    <t>Миронова</t>
-  </si>
-  <si>
-    <t>Борисовна</t>
+    <t>Вологодская</t>
+  </si>
+  <si>
+    <t>Канаш</t>
+  </si>
+  <si>
+    <t>Порядочек</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>Давид</t>
+  </si>
+  <si>
+    <t>Блинов</t>
+  </si>
+  <si>
+    <t>Макарович</t>
   </si>
   <si>
     <t>34</t>
   </si>
   <si>
-    <t>14-04-1985</t>
-  </si>
-  <si>
-    <t>Шахтерск</t>
-  </si>
-  <si>
-    <t>245721</t>
-  </si>
-  <si>
-    <t>Россия</t>
-  </si>
-  <si>
-    <t>Вологодская</t>
-  </si>
-  <si>
-    <t>Пошехонье</t>
-  </si>
-  <si>
-    <t>Абзаковская</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>Таисия</t>
-  </si>
-  <si>
-    <t>Сергеевна</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>05-08-1927</t>
+    <t>04-11-1985</t>
+  </si>
+  <si>
+    <t>Стародуб</t>
+  </si>
+  <si>
+    <t>356241</t>
   </si>
   <si>
     <t>Бирск</t>
   </si>
   <si>
-    <t>126041</t>
-  </si>
-  <si>
-    <t>Белоруссия</t>
-  </si>
-  <si>
-    <t>Тамбовская</t>
+    <t>37</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Харитон</t>
+  </si>
+  <si>
+    <t>Брежнев</t>
+  </si>
+  <si>
+    <t>Денисович</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>18-02-1986</t>
+  </si>
+  <si>
+    <t>Усинск</t>
+  </si>
+  <si>
+    <t>Новикова-Прибоя</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>Тарас</t>
+  </si>
+  <si>
+    <t>Павлов</t>
+  </si>
+  <si>
+    <t>Вадимович</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>24-10-1952</t>
   </si>
   <si>
     <t>Бирюч</t>
   </si>
   <si>
-    <t>Забелиха</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>98</t>
+    <t>252231</t>
+  </si>
+  <si>
+    <t>Новая</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>Савва</t>
+  </si>
+  <si>
+    <t>Ложкарев</t>
+  </si>
+  <si>
+    <t>Александрович</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>17-09-1923</t>
+  </si>
+  <si>
+    <t>111111</t>
+  </si>
+  <si>
+    <t>Тульская</t>
+  </si>
+  <si>
+    <t>Азнакаево</t>
+  </si>
+  <si>
+    <t>переулок Моршанский</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>Лера</t>
+  </si>
+  <si>
+    <t>Филимонова</t>
+  </si>
+  <si>
+    <t>Павловна</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>14-04-1909</t>
+  </si>
+  <si>
+    <t>Спасск</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Магаданская</t>
+  </si>
+  <si>
+    <t>Балахна</t>
+  </si>
+  <si>
+    <t>переулок Джалиля</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Блинова</t>
+  </si>
+  <si>
+    <t>Денисовна</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>14-08-2008</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>Яна</t>
+  </si>
+  <si>
+    <t>Шеповалова</t>
+  </si>
+  <si>
+    <t>Феродовна</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>08-02-2014</t>
+  </si>
+  <si>
+    <t>Североморск</t>
+  </si>
+  <si>
+    <t>242561</t>
+  </si>
+  <si>
+    <t>Гороховец</t>
+  </si>
+  <si>
+    <t>Альняш</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>184</t>
   </si>
 </sst>
 </file>
@@ -215,7 +422,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -297,33 +504,33 @@
         <v>23</v>
       </c>
       <c r="K2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
         <v>24</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>25</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>26</v>
-      </c>
-      <c r="N2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>30</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -358,43 +565,351 @@
         <v>41</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" t="s">
+        <v>52</v>
+      </c>
+      <c r="N4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" t="s">
+        <v>36</v>
+      </c>
+      <c r="K6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L6" t="s">
+        <v>70</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L7" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" t="s">
+        <v>80</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+      <c r="L8" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" t="s">
+        <v>91</v>
+      </c>
+      <c r="N8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>93</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>98</v>
+      </c>
+      <c r="H9" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" t="s">
+        <v>102</v>
+      </c>
+      <c r="M9" t="s">
+        <v>103</v>
+      </c>
+      <c r="N9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
         <v>46</v>
       </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" t="s">
         <v>48</v>
       </c>
-      <c r="K4" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" t="s">
+        <v>109</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D11" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" t="s">
+        <v>118</v>
+      </c>
+      <c r="L11" t="s">
+        <v>119</v>
+      </c>
+      <c r="M11" t="s">
+        <v>120</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>
